--- a/biology/Zoologie/Catocala_elocata/Catocala_elocata.xlsx
+++ b/biology/Zoologie/Catocala_elocata/Catocala_elocata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Déplacée (Catocala elocata) est une espèce de lépidoptères de la famille des Erebidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, on la trouve en Europe centrale et du Sud, en Anatolie, en Ouzbékistan et au Kazakhstan. Répandue en France métropolitaine, sauf dans l'extrême nord.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son envergure atteint 70 à 75 mm. En France, c'est la plus grande espèce du genre Catocala aux ailes postérieures rouges.
 </t>
@@ -573,11 +589,48 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce univoltine, l'imago vole de juillet à octobre dans des milieux arborés, y compris dans les villes et villages.
-Chenille
-Sa larve se nourrit sur les peupliers et les saules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catocala_elocata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catocala_elocata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa larve se nourrit sur les peupliers et les saules.
 </t>
         </is>
       </c>
